--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2339.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2339.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.216027613319823</v>
+        <v>0.7135302424430847</v>
       </c>
       <c r="B1">
-        <v>1.932975834861882</v>
+        <v>0.58637934923172</v>
       </c>
       <c r="C1">
-        <v>4.189383969652962</v>
+        <v>0.5236685276031494</v>
       </c>
       <c r="D1">
-        <v>1.989407064283528</v>
+        <v>0.5788750648498535</v>
       </c>
       <c r="E1">
-        <v>0.7634332342159628</v>
+        <v>0.7239269018173218</v>
       </c>
     </row>
   </sheetData>
